--- a/Code/R/PerfSearch_Classification_TenfoldCV_WEKA_SMOTE217_NormFeaturized.xlsx
+++ b/Code/R/PerfSearch_Classification_TenfoldCV_WEKA_SMOTE217_NormFeaturized.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="PerfSearch_Classification_Tenfo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -516,8 +516,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -855,7 +856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -880,140 +883,140 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>2800</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.94700460829493105</v>
       </c>
-      <c r="E2">
-        <v>0.93548387096774199</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="1">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.95852534562212</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>0.89424663014522598</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2800</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.94700460829493105</v>
       </c>
-      <c r="E3">
-        <v>0.93548387096774199</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="1">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.95852534562212</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0.89424663014522598</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2800</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.94700460829493105</v>
       </c>
-      <c r="E4">
-        <v>0.93548387096774199</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="1">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.95852534562212</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>0.89424663014522598</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>2800</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.94700460829493105</v>
       </c>
-      <c r="E5">
-        <v>0.93548387096774199</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="1">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.95852534562212</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>0.89424663014522598</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>2800</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>30</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.94700460829493105</v>
       </c>
-      <c r="E6">
-        <v>0.93548387096774199</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="1">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.95852534562212</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0.89424663014522598</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>2800</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>100</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.94700460829493105</v>
       </c>
-      <c r="E7">
-        <v>0.93548387096774199</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="1">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.95852534562212</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0.89424663014522598</v>
       </c>
     </row>
@@ -1063,26 +1066,26 @@
         <v>0.88955206143901999</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
+    <row r="10" spans="1:7" s="1" customFormat="1">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>2750</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="D10">
-        <v>0.94470046082949299</v>
-      </c>
-      <c r="E10">
-        <v>0.93548387096774199</v>
-      </c>
-      <c r="F10">
+      <c r="D10" s="1">
+        <v>0.94470046082949299</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.953917050691244</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0.88955206143901999</v>
       </c>
     </row>
